--- a/06-03-2023/data/output/xlsx/sample_0/5_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/5_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="134">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,124 +352,70 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__10,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_adds_and_subs__9,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__10,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__1,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4</t>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_mults_and_divs__0,num_of_unknowns__0,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
   </si>
 </sst>
 </file>
@@ -809,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,22 +810,22 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D2">
-        <v>0.02376756493620357</v>
+        <v>0.01328949304351527</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F2">
-        <v>0.007231404958677686</v>
+        <v>0.009240246406570842</v>
       </c>
       <c r="G2">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H2">
-        <v>0.0002173769025654616</v>
+        <v>0.0002222103344265529</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -872,22 +836,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D3">
-        <v>0.02214587134951918</v>
+        <v>0.006074403144474107</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F3">
-        <v>0.00718562874251497</v>
+        <v>0.009445100354191263</v>
       </c>
       <c r="G3">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H3">
-        <v>0.0001716006864027455</v>
+        <v>0.0004270642820469739</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -898,22 +862,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>0.03950518877453931</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
       </c>
       <c r="F4">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H4">
-        <v>0.08389506285297868</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -924,19 +885,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H5">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -950,16 +911,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H6">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -973,16 +934,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H7">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -996,16 +957,16 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H8">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1016,19 +977,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H9">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1039,19 +1000,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H10">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1062,19 +1023,19 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="G11">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H11">
-        <v>-0.007014028056112225</v>
+        <v>-9.027063135279983E-06</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1085,22 +1046,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="D12">
-        <v>0.02358046279473278</v>
+        <v>-0.00730342915954398</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F12">
-        <v>0.00702576112412178</v>
+        <v>0.00967741935483871</v>
       </c>
       <c r="G12">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H12">
-        <v>1.173306800955533E-05</v>
+        <v>0.0006593832826944212</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1111,22 +1072,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
-      </c>
-      <c r="D13">
-        <v>0.0322278505424906</v>
-      </c>
-      <c r="E13" t="s">
-        <v>110</v>
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
       </c>
       <c r="F13">
-        <v>0.01016949152542373</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="G13">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H13">
-        <v>0.003155463469311504</v>
+        <v>-0.004067541022639338</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1137,22 +1095,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
-      </c>
-      <c r="D14">
-        <v>-0.01915269238014238</v>
-      </c>
-      <c r="E14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D14" t="s">
         <v>111</v>
       </c>
       <c r="F14">
-        <v>0.01142857142857143</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H14">
-        <v>0.004414543372459204</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1163,22 +1118,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
-      </c>
-      <c r="D15">
-        <v>-0.0186398421624807</v>
-      </c>
-      <c r="E15" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
       </c>
       <c r="F15">
-        <v>0.007692307692307693</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H15">
-        <v>0.0006782796361954682</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1189,22 +1141,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
-      </c>
-      <c r="D16">
-        <v>-0.0113240438134593</v>
-      </c>
-      <c r="E16" t="s">
-        <v>113</v>
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
       </c>
       <c r="F16">
-        <v>0.01282051282051282</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H16">
-        <v>0.005806484764400596</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1215,22 +1164,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
-      </c>
-      <c r="D17">
-        <v>-0.005436333939867238</v>
-      </c>
-      <c r="E17" t="s">
-        <v>114</v>
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>111</v>
       </c>
       <c r="F17">
-        <v>0.01923076923076923</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H17">
-        <v>0.01221674117465701</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1243,20 +1189,17 @@
       <c r="C18">
         <v>26</v>
       </c>
-      <c r="D18">
-        <v>0.009266971488165127</v>
-      </c>
-      <c r="E18" t="s">
-        <v>115</v>
+      <c r="D18" t="s">
+        <v>111</v>
       </c>
       <c r="F18">
-        <v>0.03846153846153846</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H18">
-        <v>0.03144751040542624</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1267,22 +1210,22 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>654</v>
       </c>
       <c r="D19">
-        <v>0.02078142116493227</v>
+        <v>0.01524040989040973</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19">
-        <v>0.05882352941176471</v>
+        <v>0.01376146788990826</v>
       </c>
       <c r="G19">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H19">
-        <v>0.05180950135565248</v>
+        <v>0.004743431817763969</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1293,22 +1236,22 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
+        <v>527</v>
       </c>
       <c r="D20">
-        <v>-0.08906162810411541</v>
+        <v>0.009155317977709075</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20">
-        <v>0.007692307692307693</v>
+        <v>0.01328273244781784</v>
       </c>
       <c r="G20">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H20">
-        <v>0.0006782796361954682</v>
+        <v>0.004264696375673548</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1319,22 +1262,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
-      </c>
-      <c r="D21">
-        <v>-0.009637092390001727</v>
-      </c>
-      <c r="E21" t="s">
-        <v>118</v>
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>0.007662835249042145</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H21">
-        <v>0.0006488071929299207</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1345,19 +1285,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H22">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1368,19 +1308,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H23">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1391,19 +1331,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H24">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1414,19 +1354,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H25">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1437,19 +1377,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H26">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1463,16 +1403,16 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H27">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1483,19 +1423,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H28">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1506,19 +1446,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H29">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1532,16 +1472,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H30">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1552,19 +1492,22 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>105</v>
+        <v>415</v>
+      </c>
+      <c r="D31">
+        <v>0.007315526057787319</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.01445783132530121</v>
       </c>
       <c r="G31">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H31">
-        <v>-0.007014028056112225</v>
+        <v>0.005439795253156916</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1575,19 +1518,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>0.004866180048661801</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H32">
-        <v>-0.002147848007450424</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1598,19 +1541,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H33">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1624,16 +1567,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H34">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1644,19 +1587,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.006600660066006601</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H35">
-        <v>-0.0004133679901056238</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1667,22 +1610,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
-      </c>
-      <c r="D36">
-        <v>0.0008833178983511738</v>
-      </c>
-      <c r="E36" t="s">
-        <v>119</v>
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
       </c>
       <c r="F36">
-        <v>0.00966183574879227</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H36">
-        <v>0.002647807692680046</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1693,19 +1633,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0.006134969325153374</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H37">
-        <v>-0.0008790587309588501</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1716,19 +1656,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H38">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1739,19 +1679,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H39">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1762,19 +1702,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H40">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1785,19 +1725,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H41">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1808,22 +1748,22 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
+        <v>296</v>
       </c>
       <c r="D42">
-        <v>0.02353061528687823</v>
+        <v>0.005791341079237451</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F42">
-        <v>0.007028112449799197</v>
+        <v>0.01689189189189189</v>
       </c>
       <c r="G42">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H42">
-        <v>1.408439368697206E-05</v>
+        <v>0.007873855819747604</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1834,22 +1774,22 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
+        <v>215</v>
       </c>
       <c r="D43">
-        <v>0.0235427264591386</v>
+        <v>0.003077240839425698</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F43">
-        <v>0.007063572149344097</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="G43">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H43">
-        <v>4.95440932318722E-05</v>
+        <v>0.009586615090646409</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1860,22 +1800,22 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44">
-        <v>0.07549775961632683</v>
+        <v>-0.006376499487098499</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F44">
-        <v>0.08333333333333333</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G44">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H44">
-        <v>0.07631930527722111</v>
+        <v>0.003030156698940049</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1886,19 +1826,22 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45" t="s">
-        <v>105</v>
+        <v>123</v>
+      </c>
+      <c r="D45">
+        <v>-0.001930220793456885</v>
+      </c>
+      <c r="E45" t="s">
+        <v>121</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="G45">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H45">
-        <v>-0.007014028056112225</v>
+        <v>0.007242126529481729</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1909,19 +1852,22 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="D46">
+        <v>-0.008344320032860291</v>
+      </c>
+      <c r="E46" t="s">
+        <v>122</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G46">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H46">
-        <v>-0.007014028056112225</v>
+        <v>0.001291242278371175</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1932,22 +1878,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
-      </c>
-      <c r="D47">
-        <v>0.02160805704923311</v>
-      </c>
-      <c r="E47" t="s">
-        <v>123</v>
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
       </c>
       <c r="F47">
-        <v>0.007704160246533128</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H47">
-        <v>0.0006901321904209034</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1958,22 +1901,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
-      </c>
-      <c r="D48">
-        <v>0.02179707545456538</v>
-      </c>
-      <c r="E48" t="s">
-        <v>124</v>
+        <v>48</v>
+      </c>
+      <c r="D48" t="s">
+        <v>111</v>
       </c>
       <c r="F48">
-        <v>0.008421052631578947</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H48">
-        <v>0.001407024575466723</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1984,22 +1924,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
+        <v>996</v>
       </c>
       <c r="D49">
-        <v>0.02587906371396391</v>
+        <v>0.01305330132803286</v>
       </c>
       <c r="E49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F49">
-        <v>0.01302931596091205</v>
+        <v>0.009036144578313253</v>
       </c>
       <c r="G49">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H49">
-        <v>0.006015287904799828</v>
+        <v>1.81085061689637E-05</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2010,22 +1950,19 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
-      </c>
-      <c r="D50">
-        <v>0.02812604317913484</v>
-      </c>
-      <c r="E50" t="s">
-        <v>126</v>
+        <v>988</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
       </c>
       <c r="F50">
-        <v>0.01716738197424893</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="G50">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H50">
-        <v>0.0101533539181367</v>
+        <v>-0.0009208700802414548</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2036,22 +1973,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
-      </c>
-      <c r="D51">
-        <v>0.03099753213609922</v>
-      </c>
-      <c r="E51" t="s">
-        <v>127</v>
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
       </c>
       <c r="F51">
-        <v>0.01948051948051948</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H51">
-        <v>0.01246649142440726</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2062,22 +1996,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
-      </c>
-      <c r="D52">
-        <v>0.0334789500007371</v>
-      </c>
-      <c r="E52" t="s">
-        <v>128</v>
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
       </c>
       <c r="F52">
-        <v>0.0198019801980198</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H52">
-        <v>0.01278795214190758</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2088,22 +2019,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
-      </c>
-      <c r="D53">
-        <v>0.04806924915374736</v>
-      </c>
-      <c r="E53" t="s">
-        <v>129</v>
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
       </c>
       <c r="F53">
-        <v>0.03225806451612903</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H53">
-        <v>0.02524403646001681</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2114,22 +2042,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
-      </c>
-      <c r="D54">
-        <v>0.07576538333218609</v>
-      </c>
-      <c r="E54" t="s">
-        <v>130</v>
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
       </c>
       <c r="F54">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H54">
-        <v>0.05965263861055444</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2140,22 +2065,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
-      </c>
-      <c r="D55">
-        <v>0.002012935093053867</v>
-      </c>
-      <c r="E55" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>0.01388888888888889</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H55">
-        <v>0.006874860832776664</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2166,19 +2088,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>0.005847953216374269</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H56">
-        <v>-0.001166074839737956</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2189,19 +2111,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H57">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2212,19 +2134,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
+        <v>636</v>
+      </c>
+      <c r="D58">
+        <v>-0.02008654326080048</v>
+      </c>
+      <c r="E58" t="s">
+        <v>124</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.0110062893081761</v>
       </c>
       <c r="G58">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H58">
-        <v>-0.007014028056112225</v>
+        <v>0.001988253236031811</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2235,19 +2160,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>105</v>
+        <v>486</v>
+      </c>
+      <c r="D59">
+        <v>-0.01906006858469731</v>
+      </c>
+      <c r="E59" t="s">
+        <v>125</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="G59">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H59">
-        <v>-0.007014028056112225</v>
+        <v>0.003327642940201389</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2258,19 +2186,22 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
-      </c>
-      <c r="D60" t="s">
-        <v>105</v>
+        <v>320</v>
+      </c>
+      <c r="D60">
+        <v>-0.01267639921702833</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.0125</v>
       </c>
       <c r="G60">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H60">
-        <v>-0.007014028056112225</v>
+        <v>0.003481963927855712</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2281,19 +2212,22 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>105</v>
+        <v>236</v>
+      </c>
+      <c r="D61">
+        <v>-0.007356726785008851</v>
+      </c>
+      <c r="E61" t="s">
+        <v>127</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="G61">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H61">
-        <v>-0.007014028056112225</v>
+        <v>0.003693828334635373</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2304,19 +2238,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="G62">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H62">
-        <v>-0.007014028056112225</v>
+        <v>-0.00303001212004848</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2330,19 +2264,19 @@
         <v>110</v>
       </c>
       <c r="D63">
-        <v>0.004209033696003554</v>
+        <v>-0.009726477497619465</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F63">
         <v>0.00909090909090909</v>
       </c>
       <c r="G63">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H63">
-        <v>0.002076881034796866</v>
+        <v>7.287301876480155E-05</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2353,22 +2287,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
-      </c>
-      <c r="D64">
-        <v>0.007631709871177689</v>
-      </c>
-      <c r="E64" t="s">
-        <v>133</v>
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>111</v>
       </c>
       <c r="F64">
-        <v>0.01075268817204301</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H64">
-        <v>0.003738660115930787</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2379,22 +2310,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
-      </c>
-      <c r="D65">
-        <v>0.0168869033066713</v>
-      </c>
-      <c r="E65" t="s">
-        <v>134</v>
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
       </c>
       <c r="F65">
-        <v>0.01449275362318841</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H65">
-        <v>0.007478725567076181</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2405,22 +2333,22 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="D66">
-        <v>0.02242810917119541</v>
+        <v>-0.0007220584256949224</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F66">
-        <v>0.01886792452830189</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="G66">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H66">
-        <v>0.01185389647218966</v>
+        <v>0.008759741705633489</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2431,22 +2359,19 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
-      </c>
-      <c r="D67">
-        <v>0.03047411873652188</v>
-      </c>
-      <c r="E67" t="s">
-        <v>136</v>
+        <v>178</v>
+      </c>
+      <c r="D67" t="s">
+        <v>111</v>
       </c>
       <c r="F67">
-        <v>0.03125</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="G67">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H67">
-        <v>0.02423597194388778</v>
+        <v>-0.003400058544054401</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2457,22 +2382,19 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
-      </c>
-      <c r="D68">
-        <v>0.03869558586413055</v>
-      </c>
-      <c r="E68" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>111</v>
       </c>
       <c r="F68">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H68">
-        <v>0.03298597194388778</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2483,22 +2405,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
-      </c>
-      <c r="D69">
-        <v>0.05197680354355366</v>
-      </c>
-      <c r="E69" t="s">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
+        <v>111</v>
       </c>
       <c r="F69">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H69">
-        <v>0.05180950135565248</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2509,19 +2428,19 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H70">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2532,19 +2451,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.007014028056112225</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2555,22 +2474,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
-      </c>
-      <c r="D72">
-        <v>0.02340935432072765</v>
-      </c>
-      <c r="E72" t="s">
-        <v>139</v>
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.007062146892655367</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H72">
-        <v>4.811883654314269E-05</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2581,19 +2497,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H73">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2604,19 +2520,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H74">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2627,19 +2543,19 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H75">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2650,19 +2566,19 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H76">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2673,19 +2589,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H77">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2696,19 +2612,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H78">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2719,19 +2635,19 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H79">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2742,19 +2658,19 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H80">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2765,19 +2681,19 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H81">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2788,22 +2704,19 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
-      </c>
-      <c r="D82">
-        <v>0.02394103674396235</v>
-      </c>
-      <c r="E82" t="s">
-        <v>140</v>
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
       </c>
       <c r="F82">
-        <v>0.01094091903719912</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H82">
-        <v>0.0039268909810869</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2814,22 +2727,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
+        <v>997</v>
       </c>
       <c r="D83">
-        <v>0.02423684478111262</v>
+        <v>0.01303399128777196</v>
       </c>
       <c r="E83" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="F83">
-        <v>0.01111111111111111</v>
+        <v>0.009027081243731194</v>
       </c>
       <c r="G83">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H83">
-        <v>0.004097083054998887</v>
+        <v>9.045171586905335E-06</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2840,19 +2753,19 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>704</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="G84">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H84">
-        <v>-0.007014028056112225</v>
+        <v>-0.003336217890326107</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2863,19 +2776,19 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H85">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2886,19 +2799,19 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H86">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2909,19 +2822,19 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H87">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2932,19 +2845,19 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H88">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2955,19 +2868,19 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H89">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2978,19 +2891,19 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H90">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3001,19 +2914,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H91">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3024,22 +2937,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
-      </c>
-      <c r="D92">
-        <v>0.03366422845141093</v>
-      </c>
-      <c r="E92" t="s">
-        <v>142</v>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.02127659574468085</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H92">
-        <v>0.01426256768856863</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3050,22 +2960,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D93">
-        <v>0.002873779007012418</v>
+        <v>0.01025049119219454</v>
       </c>
       <c r="E93" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F93">
-        <v>0.01818181818181818</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="G93">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H93">
-        <v>0.01116779012570596</v>
+        <v>0.008149345902104638</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3076,22 +2986,22 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94">
-        <v>0.02610118471118172</v>
+        <v>-0.004583662270370913</v>
       </c>
       <c r="E94" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F94">
-        <v>0.03333333333333333</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="G94">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H94">
-        <v>0.02631930527722111</v>
+        <v>0.007286311753942667</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3102,22 +3012,19 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
-      </c>
-      <c r="D95">
-        <v>0.03990356202975774</v>
-      </c>
-      <c r="E95" t="s">
-        <v>145</v>
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>111</v>
       </c>
       <c r="F95">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H95">
-        <v>0.04060501956293539</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3128,19 +3035,19 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H96">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3151,19 +3058,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H97">
-        <v>-0.007014028056112225</v>
+        <v>-0.009018036072144289</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3174,19 +3081,22 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
-      </c>
-      <c r="D98" t="s">
-        <v>105</v>
+        <v>85</v>
+      </c>
+      <c r="D98">
+        <v>-0.007640636823535944</v>
+      </c>
+      <c r="E98" t="s">
+        <v>133</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="G98">
-        <v>0.007014028056112225</v>
+        <v>0.009018036072144289</v>
       </c>
       <c r="H98">
-        <v>-0.007014028056112225</v>
+        <v>0.002746669810208652</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3197,19 +3107,157 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0.009018036072144289</v>
+      </c>
+      <c r="H99">
+        <v>-0.009018036072144289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.007014028056112225</v>
-      </c>
-      <c r="H99">
-        <v>-0.007014028056112225</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0.009018036072144289</v>
+      </c>
+      <c r="H100">
+        <v>-0.009018036072144289</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0.009018036072144289</v>
+      </c>
+      <c r="H101">
+        <v>-0.009018036072144289</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0.009018036072144289</v>
+      </c>
+      <c r="H102">
+        <v>-0.009018036072144289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0.009018036072144289</v>
+      </c>
+      <c r="H103">
+        <v>-0.009018036072144289</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0.009018036072144289</v>
+      </c>
+      <c r="H104">
+        <v>-0.009018036072144289</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0.009018036072144289</v>
+      </c>
+      <c r="H105">
+        <v>-0.009018036072144289</v>
       </c>
     </row>
   </sheetData>
